--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Efna4-Epha3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Efna4-Epha3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,16 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Efna4</t>
   </si>
   <si>
     <t>Epha3</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.828516</v>
+        <v>0.3893783333333333</v>
       </c>
       <c r="H2">
-        <v>2.485548</v>
+        <v>1.168135</v>
       </c>
       <c r="I2">
-        <v>0.4625620436231038</v>
+        <v>0.2294878876126519</v>
       </c>
       <c r="J2">
-        <v>0.4821955800271095</v>
+        <v>0.2521981668521232</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.030493</v>
+        <v>0.107177</v>
       </c>
       <c r="N2">
-        <v>0.09147899999999999</v>
+        <v>0.321531</v>
       </c>
       <c r="O2">
-        <v>0.001018637778668347</v>
+        <v>0.003526763356587491</v>
       </c>
       <c r="P2">
-        <v>0.001021037349570579</v>
+        <v>0.003549676734010809</v>
       </c>
       <c r="Q2">
-        <v>0.025263938388</v>
+        <v>0.04173240163166667</v>
       </c>
       <c r="R2">
-        <v>0.227375445492</v>
+        <v>0.375591614685</v>
       </c>
       <c r="S2">
-        <v>0.0004711831726125293</v>
+        <v>0.0008093494728129691</v>
       </c>
       <c r="T2">
-        <v>0.0004923396970055281</v>
+        <v>0.0008952219652351575</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.828516</v>
+        <v>0.3893783333333333</v>
       </c>
       <c r="H3">
-        <v>2.485548</v>
+        <v>1.168135</v>
       </c>
       <c r="I3">
-        <v>0.4625620436231038</v>
+        <v>0.2294878876126519</v>
       </c>
       <c r="J3">
-        <v>0.4821955800271095</v>
+        <v>0.2521981668521232</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +626,22 @@
         <v>88.95964599999999</v>
       </c>
       <c r="O3">
-        <v>0.990584245483253</v>
+        <v>0.9757678722356318</v>
       </c>
       <c r="P3">
-        <v>0.9929177316168408</v>
+        <v>0.9821074349659524</v>
       </c>
       <c r="Q3">
-        <v>24.568163355112</v>
+        <v>11.54631956446778</v>
       </c>
       <c r="R3">
-        <v>221.113470196008</v>
+        <v>103.91687608021</v>
       </c>
       <c r="S3">
-        <v>0.4582066729715838</v>
+        <v>0.2239269077996471</v>
       </c>
       <c r="T3">
-        <v>0.4787805415161844</v>
+        <v>0.247685694750254</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.828516</v>
+        <v>0.3893783333333333</v>
       </c>
       <c r="H4">
-        <v>2.485548</v>
+        <v>1.168135</v>
       </c>
       <c r="I4">
-        <v>0.4625620436231038</v>
+        <v>0.2294878876126519</v>
       </c>
       <c r="J4">
-        <v>0.4821955800271095</v>
+        <v>0.2521981668521232</v>
       </c>
       <c r="K4">
         <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.211054</v>
+        <v>0.04072766666666667</v>
       </c>
       <c r="N4">
-        <v>0.422108</v>
+        <v>0.122183</v>
       </c>
       <c r="O4">
-        <v>0.007050391163187266</v>
+        <v>0.001340183457265176</v>
       </c>
       <c r="P4">
-        <v>0.00471133302236074</v>
+        <v>0.001348890627627329</v>
       </c>
       <c r="Q4">
-        <v>0.174861615864</v>
+        <v>0.01585847096722222</v>
       </c>
       <c r="R4">
-        <v>1.049169695184</v>
+        <v>0.142726238705</v>
       </c>
       <c r="S4">
-        <v>0.003261243344786174</v>
+        <v>0.000307555870621206</v>
       </c>
       <c r="T4">
-        <v>0.002271783959418112</v>
+        <v>0.0003401877435716222</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.828516</v>
+        <v>0.3893783333333333</v>
       </c>
       <c r="H5">
-        <v>2.485548</v>
+        <v>1.168135</v>
       </c>
       <c r="I5">
-        <v>0.4625620436231038</v>
+        <v>0.2294878876126519</v>
       </c>
       <c r="J5">
-        <v>0.4821955800271095</v>
+        <v>0.2521981668521232</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.04031433333333333</v>
+        <v>0.5885005</v>
       </c>
       <c r="N5">
-        <v>0.120943</v>
+        <v>1.177001</v>
       </c>
       <c r="O5">
-        <v>0.001346725574891351</v>
+        <v>0.01936518095051565</v>
       </c>
       <c r="P5">
-        <v>0.001349898011227873</v>
+        <v>0.01299399767240936</v>
       </c>
       <c r="Q5">
-        <v>0.033401070196</v>
+        <v>0.2291493438558333</v>
       </c>
       <c r="R5">
-        <v>0.300609631764</v>
+        <v>1.374896063135</v>
       </c>
       <c r="S5">
-        <v>0.0006229441341212426</v>
+        <v>0.004444074469570604</v>
       </c>
       <c r="T5">
-        <v>0.0006509148545014658</v>
+        <v>0.003277062393062397</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +773,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -791,40 +794,40 @@
         <v>2.231519</v>
       </c>
       <c r="I6">
-        <v>0.4152870872032183</v>
+        <v>0.4383967447919097</v>
       </c>
       <c r="J6">
-        <v>0.4329140288365043</v>
+        <v>0.4817807882613594</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.030493</v>
+        <v>0.107177</v>
       </c>
       <c r="N6">
-        <v>0.09147899999999999</v>
+        <v>0.321531</v>
       </c>
       <c r="O6">
-        <v>0.001018637778668347</v>
+        <v>0.003526763356587491</v>
       </c>
       <c r="P6">
-        <v>0.001021037349570579</v>
+        <v>0.003549676734010809</v>
       </c>
       <c r="Q6">
-        <v>0.02268190295566666</v>
+        <v>0.07972250395433333</v>
       </c>
       <c r="R6">
-        <v>0.204137126601</v>
+        <v>0.717502535589</v>
       </c>
       <c r="S6">
-        <v>0.0004230271160183343</v>
+        <v>0.001546121575179345</v>
       </c>
       <c r="T6">
-        <v>0.0004420213925951456</v>
+        <v>0.001710166054984735</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -853,10 +856,10 @@
         <v>2.231519</v>
       </c>
       <c r="I7">
-        <v>0.4152870872032183</v>
+        <v>0.4383967447919097</v>
       </c>
       <c r="J7">
-        <v>0.4329140288365043</v>
+        <v>0.4817807882613594</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +874,10 @@
         <v>88.95964599999999</v>
       </c>
       <c r="O7">
-        <v>0.990584245483253</v>
+        <v>0.9757678722356318</v>
       </c>
       <c r="P7">
-        <v>0.9929177316168408</v>
+        <v>0.9821074349659524</v>
       </c>
       <c r="Q7">
         <v>22.05723780914155</v>
@@ -883,10 +886,10 @@
         <v>198.515140282274</v>
       </c>
       <c r="S7">
-        <v>0.4113768459361379</v>
+        <v>0.427773458860629</v>
       </c>
       <c r="T7">
-        <v>0.4298480154974494</v>
+        <v>0.4731604941752384</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -915,40 +918,40 @@
         <v>2.231519</v>
       </c>
       <c r="I8">
-        <v>0.4152870872032183</v>
+        <v>0.4383967447919097</v>
       </c>
       <c r="J8">
-        <v>0.4329140288365043</v>
+        <v>0.4817807882613594</v>
       </c>
       <c r="K8">
         <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.211054</v>
+        <v>0.04072766666666667</v>
       </c>
       <c r="N8">
-        <v>0.422108</v>
+        <v>0.122183</v>
       </c>
       <c r="O8">
-        <v>0.007050391163187266</v>
+        <v>0.001340183457265176</v>
       </c>
       <c r="P8">
-        <v>0.00471133302236074</v>
+        <v>0.001348890627627329</v>
       </c>
       <c r="Q8">
-        <v>0.1569903370086667</v>
+        <v>0.03029485399744445</v>
       </c>
       <c r="R8">
-        <v>0.9419420220519999</v>
+        <v>0.272653685977</v>
       </c>
       <c r="S8">
-        <v>0.00292793640980335</v>
+        <v>0.0005875320650890206</v>
       </c>
       <c r="T8">
-        <v>0.002039602159900652</v>
+        <v>0.0006498695898566544</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,40 +980,40 @@
         <v>2.231519</v>
       </c>
       <c r="I9">
-        <v>0.4152870872032183</v>
+        <v>0.4383967447919097</v>
       </c>
       <c r="J9">
-        <v>0.4329140288365043</v>
+        <v>0.4817807882613594</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.04031433333333333</v>
+        <v>0.5885005</v>
       </c>
       <c r="N9">
-        <v>0.120943</v>
+        <v>1.177001</v>
       </c>
       <c r="O9">
-        <v>0.001346725574891351</v>
+        <v>0.01936518095051565</v>
       </c>
       <c r="P9">
-        <v>0.001349898011227873</v>
+        <v>0.01299399767240936</v>
       </c>
       <c r="Q9">
-        <v>0.02998740026855556</v>
+        <v>0.4377500157531666</v>
       </c>
       <c r="R9">
-        <v>0.269886602417</v>
+        <v>2.626500094519</v>
       </c>
       <c r="S9">
-        <v>0.0005592777412587088</v>
+        <v>0.008489632291012362</v>
       </c>
       <c r="T9">
-        <v>0.0005843897865590432</v>
+        <v>0.006260258441279654</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1021,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.21879</v>
+        <v>0.08827633333333333</v>
       </c>
       <c r="H10">
-        <v>0.43758</v>
+        <v>0.264829</v>
       </c>
       <c r="I10">
-        <v>0.1221508691736779</v>
+        <v>0.05202741788283973</v>
       </c>
       <c r="J10">
-        <v>0.08489039113638626</v>
+        <v>0.05717608694995093</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.030493</v>
+        <v>0.107177</v>
       </c>
       <c r="N10">
-        <v>0.09147899999999999</v>
+        <v>0.321531</v>
       </c>
       <c r="O10">
-        <v>0.001018637778668347</v>
+        <v>0.003526763356587491</v>
       </c>
       <c r="P10">
-        <v>0.001021037349570579</v>
+        <v>0.003549676734010809</v>
       </c>
       <c r="Q10">
-        <v>0.006671563469999999</v>
+        <v>0.009461192577666666</v>
       </c>
       <c r="R10">
-        <v>0.04002938081999999</v>
+        <v>0.085150733199</v>
       </c>
       <c r="S10">
-        <v>0.0001244274900374831</v>
+        <v>0.0001834883909270639</v>
       </c>
       <c r="T10">
-        <v>8.667625996990562E-05</v>
+        <v>0.0002029566255880198</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,31 +1083,31 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.21879</v>
+        <v>0.08827633333333333</v>
       </c>
       <c r="H11">
-        <v>0.43758</v>
+        <v>0.264829</v>
       </c>
       <c r="I11">
-        <v>0.1221508691736779</v>
+        <v>0.05202741788283973</v>
       </c>
       <c r="J11">
-        <v>0.08489039113638626</v>
+        <v>0.05717608694995093</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1122,22 @@
         <v>88.95964599999999</v>
       </c>
       <c r="O11">
-        <v>0.990584245483253</v>
+        <v>0.9757678722356318</v>
       </c>
       <c r="P11">
-        <v>0.9929177316168408</v>
+        <v>0.9821074349659524</v>
       </c>
       <c r="Q11">
-        <v>6.48782698278</v>
+        <v>2.617677121170444</v>
       </c>
       <c r="R11">
-        <v>38.92696189668</v>
+        <v>23.559094090534</v>
       </c>
       <c r="S11">
-        <v>0.1210007265755312</v>
+        <v>0.05076668284545258</v>
       </c>
       <c r="T11">
-        <v>0.08428917460320702</v>
+        <v>0.05615306009580658</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.21879</v>
+        <v>0.08827633333333333</v>
       </c>
       <c r="H12">
-        <v>0.43758</v>
+        <v>0.264829</v>
       </c>
       <c r="I12">
-        <v>0.1221508691736779</v>
+        <v>0.05202741788283973</v>
       </c>
       <c r="J12">
-        <v>0.08489039113638626</v>
+        <v>0.05717608694995093</v>
       </c>
       <c r="K12">
         <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.211054</v>
+        <v>0.04072766666666667</v>
       </c>
       <c r="N12">
-        <v>0.422108</v>
+        <v>0.122183</v>
       </c>
       <c r="O12">
-        <v>0.007050391163187266</v>
+        <v>0.001340183457265176</v>
       </c>
       <c r="P12">
-        <v>0.00471133302236074</v>
+        <v>0.001348890627627329</v>
       </c>
       <c r="Q12">
-        <v>0.04617650466</v>
+        <v>0.003595289078555556</v>
       </c>
       <c r="R12">
-        <v>0.18470601864</v>
+        <v>0.032357601707</v>
       </c>
       <c r="S12">
-        <v>0.0008612114085977422</v>
+        <v>6.97262847708042E-05</v>
       </c>
       <c r="T12">
-        <v>0.000399946903041976</v>
+        <v>7.712428781119403E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1207,557 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.08827633333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.264829</v>
+      </c>
+      <c r="I13">
+        <v>0.05202741788283973</v>
+      </c>
+      <c r="J13">
+        <v>0.05717608694995093</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.5885005</v>
+      </c>
+      <c r="N13">
+        <v>1.177001</v>
+      </c>
+      <c r="O13">
+        <v>0.01936518095051565</v>
+      </c>
+      <c r="P13">
+        <v>0.01299399767240936</v>
+      </c>
+      <c r="Q13">
+        <v>0.05195066630483333</v>
+      </c>
+      <c r="R13">
+        <v>0.311703997829</v>
+      </c>
+      <c r="S13">
+        <v>0.001007520361689286</v>
+      </c>
+      <c r="T13">
+        <v>0.0007429459407451379</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.4583675</v>
+      </c>
+      <c r="H14">
+        <v>0.9167350000000001</v>
+      </c>
+      <c r="I14">
+        <v>0.2701480291026951</v>
+      </c>
+      <c r="J14">
+        <v>0.1979213759447163</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.107177</v>
+      </c>
+      <c r="N14">
+        <v>0.321531</v>
+      </c>
+      <c r="O14">
+        <v>0.003526763356587491</v>
+      </c>
+      <c r="P14">
+        <v>0.003549676734010809</v>
+      </c>
+      <c r="Q14">
+        <v>0.04912645354750001</v>
+      </c>
+      <c r="R14">
+        <v>0.294758721285</v>
+      </c>
+      <c r="S14">
+        <v>0.0009527481698937161</v>
+      </c>
+      <c r="T14">
+        <v>0.0007025569033543659</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.4583675</v>
+      </c>
+      <c r="H15">
+        <v>0.9167350000000001</v>
+      </c>
+      <c r="I15">
+        <v>0.2701480291026951</v>
+      </c>
+      <c r="J15">
+        <v>0.1979213759447163</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>29.65321533333333</v>
+      </c>
+      <c r="N15">
+        <v>88.95964599999999</v>
+      </c>
+      <c r="O15">
+        <v>0.9757678722356318</v>
+      </c>
+      <c r="P15">
+        <v>0.9821074349659524</v>
+      </c>
+      <c r="Q15">
+        <v>13.59207017930167</v>
+      </c>
+      <c r="R15">
+        <v>81.55242107581</v>
+      </c>
+      <c r="S15">
+        <v>0.2636017675461863</v>
+      </c>
+      <c r="T15">
+        <v>0.1943800548539973</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.4583675</v>
+      </c>
+      <c r="H16">
+        <v>0.9167350000000001</v>
+      </c>
+      <c r="I16">
+        <v>0.2701480291026951</v>
+      </c>
+      <c r="J16">
+        <v>0.1979213759447163</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.04072766666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.122183</v>
+      </c>
+      <c r="O16">
+        <v>0.001340183457265176</v>
+      </c>
+      <c r="P16">
+        <v>0.001348890627627329</v>
+      </c>
+      <c r="Q16">
+        <v>0.01866823875083334</v>
+      </c>
+      <c r="R16">
+        <v>0.112009432505</v>
+      </c>
+      <c r="S16">
+        <v>0.0003620479196162233</v>
+      </c>
+      <c r="T16">
+        <v>0.0002669742890189328</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.4583675</v>
+      </c>
+      <c r="H17">
+        <v>0.9167350000000001</v>
+      </c>
+      <c r="I17">
+        <v>0.2701480291026951</v>
+      </c>
+      <c r="J17">
+        <v>0.1979213759447163</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.5885005</v>
+      </c>
+      <c r="N17">
+        <v>1.177001</v>
+      </c>
+      <c r="O17">
+        <v>0.01936518095051565</v>
+      </c>
+      <c r="P17">
+        <v>0.01299399767240936</v>
+      </c>
+      <c r="Q17">
+        <v>0.26974950293375</v>
+      </c>
+      <c r="R17">
+        <v>1.078998011735</v>
+      </c>
+      <c r="S17">
+        <v>0.00523146546699886</v>
+      </c>
+      <c r="T17">
+        <v>0.002571789898345702</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.21879</v>
-      </c>
-      <c r="H13">
-        <v>0.43758</v>
-      </c>
-      <c r="I13">
-        <v>0.1221508691736779</v>
-      </c>
-      <c r="J13">
-        <v>0.08489039113638626</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
         <v>0.3333333333333333</v>
       </c>
-      <c r="M13">
-        <v>0.04031433333333333</v>
-      </c>
-      <c r="N13">
-        <v>0.120943</v>
-      </c>
-      <c r="O13">
-        <v>0.001346725574891351</v>
-      </c>
-      <c r="P13">
-        <v>0.001349898011227873</v>
-      </c>
-      <c r="Q13">
-        <v>0.00882037299</v>
-      </c>
-      <c r="R13">
-        <v>0.05292223794000001</v>
-      </c>
-      <c r="S13">
-        <v>0.0001645036995113995</v>
-      </c>
-      <c r="T13">
-        <v>0.0001145933701673641</v>
+      <c r="G18">
+        <v>0.01686533333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.050596</v>
+      </c>
+      <c r="I18">
+        <v>0.009939920609903594</v>
+      </c>
+      <c r="J18">
+        <v>0.01092358199185028</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.107177</v>
+      </c>
+      <c r="N18">
+        <v>0.321531</v>
+      </c>
+      <c r="O18">
+        <v>0.003526763356587491</v>
+      </c>
+      <c r="P18">
+        <v>0.003549676734010809</v>
+      </c>
+      <c r="Q18">
+        <v>0.001807575830666667</v>
+      </c>
+      <c r="R18">
+        <v>0.016268182476</v>
+      </c>
+      <c r="S18">
+        <v>3.505574777439678E-05</v>
+      </c>
+      <c r="T18">
+        <v>3.877518484853038E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.01686533333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.050596</v>
+      </c>
+      <c r="I19">
+        <v>0.009939920609903594</v>
+      </c>
+      <c r="J19">
+        <v>0.01092358199185028</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>29.65321533333333</v>
+      </c>
+      <c r="N19">
+        <v>88.95964599999999</v>
+      </c>
+      <c r="O19">
+        <v>0.9757678722356318</v>
+      </c>
+      <c r="P19">
+        <v>0.9821074349659524</v>
+      </c>
+      <c r="Q19">
+        <v>0.5001113610017778</v>
+      </c>
+      <c r="R19">
+        <v>4.501002249016</v>
+      </c>
+      <c r="S19">
+        <v>0.009699055183716733</v>
+      </c>
+      <c r="T19">
+        <v>0.01072813109065635</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.01686533333333333</v>
+      </c>
+      <c r="H20">
+        <v>0.050596</v>
+      </c>
+      <c r="I20">
+        <v>0.009939920609903594</v>
+      </c>
+      <c r="J20">
+        <v>0.01092358199185028</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.04072766666666667</v>
+      </c>
+      <c r="N20">
+        <v>0.122183</v>
+      </c>
+      <c r="O20">
+        <v>0.001340183457265176</v>
+      </c>
+      <c r="P20">
+        <v>0.001348890627627329</v>
+      </c>
+      <c r="Q20">
+        <v>0.0006868856742222222</v>
+      </c>
+      <c r="R20">
+        <v>0.006181971068</v>
+      </c>
+      <c r="S20">
+        <v>1.332131716792198E-05</v>
+      </c>
+      <c r="T20">
+        <v>1.473471736892551E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.01686533333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.050596</v>
+      </c>
+      <c r="I21">
+        <v>0.009939920609903594</v>
+      </c>
+      <c r="J21">
+        <v>0.01092358199185028</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.5885005</v>
+      </c>
+      <c r="N21">
+        <v>1.177001</v>
+      </c>
+      <c r="O21">
+        <v>0.01936518095051565</v>
+      </c>
+      <c r="P21">
+        <v>0.01299399767240936</v>
+      </c>
+      <c r="Q21">
+        <v>0.009925257099333333</v>
+      </c>
+      <c r="R21">
+        <v>0.059551542596</v>
+      </c>
+      <c r="S21">
+        <v>0.000192488361244543</v>
+      </c>
+      <c r="T21">
+        <v>0.0001419409989764754</v>
       </c>
     </row>
   </sheetData>
